--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1er_année\MA\MA-20\batailleNavale\gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\batailleNavale\documentation\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F64025-C94B-4EF8-8495-FFBD6AA89D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -91,12 +101,18 @@
   </si>
   <si>
     <t>bug entrée coordonnée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code/bateau </t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,12 +460,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,37 +498,41 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
       <c r="C3" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -522,19 +542,21 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -546,55 +568,55 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -606,19 +628,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -630,31 +652,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -672,49 +694,67 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B13" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
-        <v>1.5</v>
+      <c r="C13" s="4">
+        <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.75</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>SUM(C2:C14)</f>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>SUM(C3:C15)</f>
         <v>16.25</v>
       </c>
     </row>
@@ -724,17 +764,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D14</xm:sqref>
+          <xm:sqref>D2:D15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11</xm:sqref>
+          <xm:sqref>A2:A12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -743,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -762,7 +802,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44267</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +811,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44266</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +820,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44265</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\batailleNavale\documentation\gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.LE-COQ\git\batailleNavale\documentation\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F64025-C94B-4EF8-8495-FFBD6AA89D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -107,12 +106,15 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>smart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,12 +462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,65 +500,65 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>2.1</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44267</v>
+        <v>44272</v>
       </c>
       <c r="B3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44265</v>
+        <v>44271</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -568,55 +570,57 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44259</v>
+        <v>44264</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -628,133 +632,169 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44256</v>
+        <v>44259</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B14" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
-        <v>1.5</v>
+      <c r="C14" s="4">
+        <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>44242</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C17" s="5">
         <v>0.75</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>SUM(C3:C15)</f>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>SUM(C5:C17)</f>
         <v>16.25</v>
       </c>
     </row>
@@ -764,17 +804,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D15</xm:sqref>
+          <xm:sqref>D2:D17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A12</xm:sqref>
+          <xm:sqref>A2:A14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -783,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -802,7 +842,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44271</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +851,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44270</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +860,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44269</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>smart</t>
+  </si>
+  <si>
+    <t>enregistrer text</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -524,27 +527,25 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
@@ -558,41 +559,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -602,19 +603,21 @@
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
@@ -626,55 +629,55 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="B10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -686,19 +689,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -710,31 +713,31 @@
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -752,49 +755,67 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B16" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
-        <v>1.5</v>
+      <c r="C16" s="4">
+        <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.75</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f>SUM(C5:C17)</f>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>SUM(C6:C18)</f>
         <v>16.25</v>
       </c>
     </row>
@@ -808,13 +829,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D17</xm:sqref>
+          <xm:sqref>D2:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A14</xm:sqref>
+          <xm:sqref>A2:A15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>enregistrer text</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>V0.1</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,37 +509,39 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44272</v>
+        <v>44275</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -545,79 +553,77 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>2.1</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44267</v>
+        <v>44272</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44265</v>
+        <v>44271</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>0.75</v>
+        <v>2.1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
@@ -629,55 +635,57 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44259</v>
+        <v>44264</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
@@ -689,133 +697,169 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c r="B12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44256</v>
+        <v>44259</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B17" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
-        <v>1.5</v>
+      <c r="C17" s="4">
+        <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>44242</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C20" s="5">
         <v>0.75</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>SUM(C6:C18)</f>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>SUM(C8:C20)</f>
         <v>16.25</v>
       </c>
     </row>
@@ -824,18 +868,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D18</xm:sqref>
+          <xm:sqref>D2:D20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A15</xm:sqref>
+          <xm:sqref>A2 A4:A17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Feuil2!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -849,7 +899,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +913,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44272</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +922,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44271</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,12 +931,15 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44270</v>
+        <v>44276</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44274</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>V0.1</t>
+  </si>
+  <si>
+    <t>tableau 3d</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44275</v>
+        <v>44279</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
@@ -521,18 +524,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="B3" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>1.5</v>
@@ -543,23 +544,25 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -571,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -589,27 +592,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
@@ -623,41 +624,41 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -667,19 +668,21 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -691,55 +694,55 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
@@ -751,19 +754,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -775,31 +778,31 @@
         <v>2</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -817,49 +820,67 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B19" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
-        <v>1.5</v>
+      <c r="C19" s="4">
+        <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.75</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f>SUM(C8:C20)</f>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>SUM(C9:C21)</f>
         <v>16.25</v>
       </c>
     </row>
@@ -873,19 +894,19 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D20</xm:sqref>
+          <xm:sqref>D2:D21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A4:A17</xm:sqref>
+          <xm:sqref>A2:A3 A5:A18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3</xm:sqref>
+          <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -913,7 +934,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +943,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44277</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +952,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44276</v>
+        <v>44277</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>tableau 3d</t>
+  </si>
+  <si>
+    <t>mise en page</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,25 +515,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
@@ -542,18 +545,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>1.5</v>
@@ -564,23 +565,25 @@
       <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -592,13 +595,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -610,27 +613,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -644,41 +645,41 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -688,19 +689,21 @@
         <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -712,55 +715,55 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>13</v>
@@ -772,19 +775,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -796,31 +799,31 @@
         <v>2</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -838,49 +841,67 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B20" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="5">
-        <v>1.5</v>
+      <c r="C20" s="4">
+        <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <f>SUM(C9:C21)</f>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C10:C22)</f>
         <v>16.25</v>
       </c>
     </row>
@@ -894,19 +915,19 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D21</xm:sqref>
+          <xm:sqref>D2:D22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3 A5:A18</xm:sqref>
+          <xm:sqref>A2:A4 A6:A19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A4</xm:sqref>
+          <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -934,7 +955,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44279</v>
+        <v>44280</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +964,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44278</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +973,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44277</v>
+        <v>44278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>mise en page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log </t>
+  </si>
+  <si>
+    <t>V1.0</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,43 +521,45 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44280</v>
+        <v>44284</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -563,18 +571,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>1.5</v>
@@ -585,23 +591,25 @@
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -613,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -631,27 +639,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -665,41 +671,41 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -709,19 +715,21 @@
         <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -733,55 +741,55 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="B15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
@@ -793,19 +801,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -817,31 +825,31 @@
         <v>2</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -859,50 +867,68 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B21" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="5">
-        <v>1.5</v>
+      <c r="C21" s="4">
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.75</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f>SUM(C10:C22)</f>
-        <v>16.25</v>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>SUM(C2:C23)</f>
+        <v>27.2</v>
       </c>
     </row>
   </sheetData>
@@ -915,19 +941,19 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D22</xm:sqref>
+          <xm:sqref>D2:D23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A4 A6:A19</xm:sqref>
+          <xm:sqref>A2:A5 A7:A20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A5</xm:sqref>
+          <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -955,7 +981,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44280</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +990,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44279</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +999,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44278</v>
+        <v>44282</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>V1.0</t>
+  </si>
+  <si>
+    <t>cor</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,63 +524,65 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44280</v>
+        <v>44284</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -589,18 +594,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>1.5</v>
@@ -611,23 +614,25 @@
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -639,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -657,27 +662,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -691,41 +694,41 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -735,19 +738,21 @@
         <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -759,55 +764,55 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>13</v>
@@ -819,19 +824,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -843,31 +848,31 @@
         <v>2</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>44245</v>
+        <v>44256</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -885,49 +890,67 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44244</v>
-      </c>
-      <c r="B22" s="5">
+        <v>44245</v>
+      </c>
+      <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="5">
-        <v>1.5</v>
+      <c r="C22" s="4">
+        <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>12</v>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.75</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <f>SUM(C2:C23)</f>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>SUM(C3:C24)</f>
         <v>27.2</v>
       </c>
     </row>
@@ -941,19 +964,19 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D23</xm:sqref>
+          <xm:sqref>D2:D24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A5 A7:A20</xm:sqref>
+          <xm:sqref>A2:A6 A8:A21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A6</xm:sqref>
+          <xm:sqref>A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -981,7 +1004,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44284</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +1013,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44283</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1022,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44282</v>
+        <v>44284</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/documentation/gestion/JournalDeTravail.xlsx
+++ b/documentation/gestion/JournalDeTravail.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.LE-COQ\git\batailleNavale\documentation\gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\batailleNavale\documentation\gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7322E8-0F43-4AE6-8C96-B47DBB910CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,12 +487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,19 +961,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Feuil2!$A$1:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A6 A8:A21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Feuil2!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -985,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="B1" s="6">
         <f ca="1">TODAY()</f>
-        <v>44286</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1014,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">TODAY()-1</f>
-        <v>44285</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1023,7 @@
       </c>
       <c r="B3" s="6">
         <f ca="1">TODAY()-2</f>
-        <v>44284</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
